--- a/code_links.xlsx
+++ b/code_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\pma6_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4455B8-6EAC-4DF6-A21A-50A97B5B0C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13489E83-9135-4D83-84A2-FD0705AEFA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26655" yWindow="2325" windowWidth="22365" windowHeight="13560" xr2:uid="{85013627-2101-4F8E-902B-F4E6FC73B3F7}"/>
+    <workbookView xWindow="-26655" yWindow="2190" windowWidth="22365" windowHeight="13560" xr2:uid="{85013627-2101-4F8E-902B-F4E6FC73B3F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Chapter</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>[[RMD]](ch04.Rmd) [[HTML]](ch04.html)</t>
+  </si>
+  <si>
+    <t>[[RMD]](ch03.Rmd) [[HTML]](ch03.html)</t>
   </si>
 </sst>
 </file>
@@ -457,7 +460,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,6 +496,9 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
